--- a/Network_Devices_List.xlsx
+++ b/Network_Devices_List.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,30 +464,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Mikrotik-Site-1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.43.12 (stable)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>192.168.240.133</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Mikrotik-Site-2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>CHR</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Desconocido</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>6.43.12 (stable)</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>192.168.240.134</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Conectado</t>
         </is>

--- a/Network_Devices_List.xlsx
+++ b/Network_Devices_List.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mikrotik-Site-1</t>
+          <t>SITE-B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,12 +479,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.43.12 (stable)</t>
+          <t>6.44 (stable)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>192.168.240.133</t>
+          <t>192.168.240.135</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mikrotik-Site-2</t>
+          <t>SITE-A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,15 +511,207 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.43.12 (stable)</t>
+          <t>6.44 (stable)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>192.168.240.134</t>
+          <t>10.20.0.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SITE-C</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10.30.0.2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SITE-D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.50.0.2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SITE-E</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.60.0.2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SITE-F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>172.20.0.2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SITE-G</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>172.30.0.2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SITE-H</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.44 (stable)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>172.40.0.2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Conectado</t>
         </is>
